--- a/modelos/OBABOL4471014/OBABOL4471014_Sell Out_metricas.xlsx
+++ b/modelos/OBABOL4471014/OBABOL4471014_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,101 +473,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45022</v>
+        <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>62.55986416367704</v>
+        <v>56.73166495096447</v>
       </c>
       <c r="C2" t="n">
-        <v>36.55854567932295</v>
+        <v>27.61499176752411</v>
       </c>
       <c r="D2" t="n">
-        <v>90.2656291750216</v>
+        <v>82.57044645181078</v>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45019</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45033</v>
+        <v>45048</v>
       </c>
       <c r="B3" t="n">
-        <v>58.27928860672817</v>
+        <v>50.40708291110726</v>
       </c>
       <c r="C3" t="n">
-        <v>34.91406798199019</v>
+        <v>23.81332972644778</v>
       </c>
       <c r="D3" t="n">
-        <v>83.81425945344098</v>
+        <v>78.60124461620087</v>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45026</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45040</v>
+        <v>45059</v>
       </c>
       <c r="B4" t="n">
-        <v>58.33514266455914</v>
+        <v>37.90144049602314</v>
       </c>
       <c r="C4" t="n">
-        <v>33.28633080743711</v>
+        <v>13.34289334242856</v>
       </c>
       <c r="D4" t="n">
-        <v>84.68678732934541</v>
+        <v>66.63657436377139</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45033</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45048</v>
+        <v>45061</v>
       </c>
       <c r="B5" t="n">
-        <v>52.81987416464969</v>
+        <v>53.06988432374129</v>
       </c>
       <c r="C5" t="n">
-        <v>27.63781224630932</v>
+        <v>25.37972674016308</v>
       </c>
       <c r="D5" t="n">
-        <v>79.56898264649848</v>
+        <v>79.30460348555449</v>
       </c>
       <c r="E5" t="n">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="B6" t="n">
-        <v>53.79691766576129</v>
-      </c>
-      <c r="C6" t="n">
-        <v>28.65864159785605</v>
-      </c>
-      <c r="D6" t="n">
-        <v>78.20085296351131</v>
-      </c>
-      <c r="E6" t="n">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -637,22 +617,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>851.4797437668786</v>
+        <v>998.1124101856509</v>
       </c>
       <c r="C2" t="n">
-        <v>29.18012583535031</v>
+        <v>31.59291708889274</v>
       </c>
       <c r="D2" t="n">
-        <v>29.18012583535031</v>
+        <v>31.59291708889274</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3558551931140282</v>
+        <v>0.3852794766938139</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3558551931140282</v>
+        <v>0.3852794766938139</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4328757316553178</v>
+        <v>0.4772088682008491</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -660,28 +640,28 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>5.954262899707547</v>
+        <v>3856.231092468955</v>
       </c>
       <c r="C3" t="n">
-        <v>2.440135836322959</v>
+        <v>62.09855950397686</v>
       </c>
       <c r="D3" t="n">
-        <v>2.440135836322959</v>
+        <v>62.09855950397686</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03754055132804553</v>
+        <v>0.6209855950397686</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03754055132804553</v>
+        <v>0.6209855950397686</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03825867724650326</v>
+        <v>0.900622347099669</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -689,22 +669,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>370.8242499546923</v>
+        <v>480.3343084293728</v>
       </c>
       <c r="C4" t="n">
-        <v>19.25679749996588</v>
+        <v>21.91653048339022</v>
       </c>
       <c r="D4" t="n">
-        <v>17.61759057453075</v>
+        <v>21.90077463735288</v>
       </c>
       <c r="E4" t="n">
-        <v>0.500096242361874</v>
+        <v>0.6635061330138176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6811536770550404</v>
+        <v>0.6635061330138176</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3814139580173291</v>
+        <v>0.4982146439729997</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>

--- a/modelos/OBABOL4471014/OBABOL4471014_Sell Out_metricas.xlsx
+++ b/modelos/OBABOL4471014/OBABOL4471014_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>56.73166495096447</v>
+        <v>56.7316649509651</v>
       </c>
       <c r="C2" t="n">
-        <v>27.61499176752411</v>
+        <v>31.25457351694665</v>
       </c>
       <c r="D2" t="n">
-        <v>82.57044645181078</v>
+        <v>83.61076175847847</v>
       </c>
       <c r="E2" t="n">
         <v>34</v>
@@ -496,13 +496,13 @@
         <v>45048</v>
       </c>
       <c r="B3" t="n">
-        <v>50.40708291110726</v>
+        <v>50.40708291056556</v>
       </c>
       <c r="C3" t="n">
-        <v>23.81332972644778</v>
+        <v>21.96889626956157</v>
       </c>
       <c r="D3" t="n">
-        <v>78.60124461620087</v>
+        <v>76.44774384261525</v>
       </c>
       <c r="E3" t="n">
         <v>82</v>
@@ -516,13 +516,13 @@
         <v>45059</v>
       </c>
       <c r="B4" t="n">
-        <v>37.90144049602314</v>
+        <v>37.9014404963692</v>
       </c>
       <c r="C4" t="n">
-        <v>13.34289334242856</v>
+        <v>11.43865739586602</v>
       </c>
       <c r="D4" t="n">
-        <v>66.63657436377139</v>
+        <v>62.68703771846075</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -536,13 +536,13 @@
         <v>45061</v>
       </c>
       <c r="B5" t="n">
-        <v>53.06988432374129</v>
+        <v>53.06988432409042</v>
       </c>
       <c r="C5" t="n">
-        <v>25.37972674016308</v>
+        <v>26.63043672375843</v>
       </c>
       <c r="D5" t="n">
-        <v>79.30460348555449</v>
+        <v>80.3848554954381</v>
       </c>
       <c r="E5" t="n">
         <v>32</v>
@@ -617,22 +617,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>998.1124101856509</v>
+        <v>998.1124102198789</v>
       </c>
       <c r="C2" t="n">
-        <v>31.59291708889274</v>
+        <v>31.59291708943444</v>
       </c>
       <c r="D2" t="n">
-        <v>31.59291708889274</v>
+        <v>31.59291708943444</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3852794766938139</v>
+        <v>0.3852794767004201</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3852794766938139</v>
+        <v>0.3852794767004201</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4772088682008491</v>
+        <v>0.4772088682109838</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3856.231092468955</v>
+        <v>3856.231092425975</v>
       </c>
       <c r="C3" t="n">
-        <v>62.09855950397686</v>
+        <v>62.0985595036308</v>
       </c>
       <c r="D3" t="n">
-        <v>62.09855950397686</v>
+        <v>62.0985595036308</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6209855950397686</v>
+        <v>0.6209855950363079</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6209855950397686</v>
+        <v>0.6209855950363079</v>
       </c>
       <c r="G3" t="n">
-        <v>0.900622347099669</v>
+        <v>0.9006223470923899</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -669,22 +669,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>480.3343084293728</v>
+        <v>480.3343084367432</v>
       </c>
       <c r="C4" t="n">
-        <v>21.91653048339022</v>
+        <v>21.91653048355837</v>
       </c>
       <c r="D4" t="n">
-        <v>21.90077463735288</v>
+        <v>21.90077463752776</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6635061330138176</v>
+        <v>0.663506133019282</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6635061330138176</v>
+        <v>0.663506133019282</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4982146439729997</v>
+        <v>0.4982146439760925</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>

--- a/modelos/OBABOL4471014/OBABOL4471014_Sell Out_metricas.xlsx
+++ b/modelos/OBABOL4471014/OBABOL4471014_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>56.7316649509651</v>
       </c>
       <c r="C2" t="n">
-        <v>31.25457351694665</v>
+        <v>29.01751807146652</v>
       </c>
       <c r="D2" t="n">
-        <v>83.61076175847847</v>
+        <v>83.16060767605342</v>
       </c>
       <c r="E2" t="n">
         <v>34</v>
@@ -499,10 +499,10 @@
         <v>50.40708291056556</v>
       </c>
       <c r="C3" t="n">
-        <v>21.96889626956157</v>
+        <v>22.68789465745106</v>
       </c>
       <c r="D3" t="n">
-        <v>76.44774384261525</v>
+        <v>77.90140189659863</v>
       </c>
       <c r="E3" t="n">
         <v>82</v>
@@ -519,10 +519,10 @@
         <v>37.9014404963692</v>
       </c>
       <c r="C4" t="n">
-        <v>11.43865739586602</v>
+        <v>10.40330804649512</v>
       </c>
       <c r="D4" t="n">
-        <v>62.68703771846075</v>
+        <v>64.39367029434761</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -539,10 +539,10 @@
         <v>53.06988432409042</v>
       </c>
       <c r="C5" t="n">
-        <v>26.63043672375843</v>
+        <v>26.62717793148228</v>
       </c>
       <c r="D5" t="n">
-        <v>80.3848554954381</v>
+        <v>80.95951234370553</v>
       </c>
       <c r="E5" t="n">
         <v>32</v>
